--- a/biology/Histoire de la zoologie et de la botanique/George_Willis_Kirkaldy/George_Willis_Kirkaldy.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Willis_Kirkaldy/George_Willis_Kirkaldy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Willis Kirkaldy (né en 1873, mort le 2 février 1910) est un entomologiste anglais.
 Il est connu pour avoir travaillé sur les Fulgoroidea pour le compte de l'association des planteurs de canne à sucre d’Hawaï, aux États-unis.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Kirkaldy, G.W. 1897. Synonymic notes on aquatic Rhynchota. Entomologist, 30: 258–260.
 (en) Kirkaldy, G.W. 1903. On the nomenclature of the genera of the Rhynchota; Heteroptera and Auchenorrhynchous Homoptera. Entomologist, 36: 213–216 BHL and 230-233.
